--- a/Integral/integral_results.xlsx
+++ b/Integral/integral_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albonicc/multiprocesadoresCloud/Integral/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Mi unidad/TEC/14. AD21/Multiprocesadores/multiprocesadoresCloud/Integral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F73872A1-6A30-F54F-9858-B997DFAFAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8523E260-7F9A-BF45-9C53-D96CBE52B44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MacBook Pro Nico" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,6 +584,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Thread</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2962,11 +2992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Integral/integral_results.xlsx
+++ b/Integral/integral_results.xlsx
@@ -8,31 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Mi unidad/TEC/14. AD21/Multiprocesadores/multiprocesadoresCloud/Integral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8523E260-7F9A-BF45-9C53-D96CBE52B44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8050BA6B-85C6-384D-8273-8CECA6EB2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MacBook Pro Nico" sheetId="1" r:id="rId1"/>
+    <sheet name="Azure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>num_threads</t>
   </si>
   <si>
     <t>execution_time</t>
   </si>
+  <si>
+    <t>min_time</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +181,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,8 +534,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2097,7 +2123,1542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Thread</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Azure!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>execution_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Azure!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Azure!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.98849200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54300800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55087699999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56572299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56638200000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56388199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56061700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54466700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55940500000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53414799999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53422199999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52856999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.539636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55957699999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.539906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53716200000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52749100000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54027000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.536053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54015899999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.546709</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54202799999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52898500000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53568499999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53974599999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53459500000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51191299999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.52388000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52023699999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52464100000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52939599999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51863499999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52470099999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52083000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53270799999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52006799999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52596200000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51974900000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.521698</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.514316</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52535900000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.50890299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52119400000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51596600000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.51264399999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51466199999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.51815800000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.523397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.52242100000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51453000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50949500000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52464</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51969200000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52275499999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.50810100000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52540399999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.51878100000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.530914</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.51920500000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.50869299999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.509382</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.53553700000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.52158400000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.52366599999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.51561699999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.50636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.51558800000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.54381299999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50875499999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.51290400000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.51843600000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.51561100000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50517100000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.51247399999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51592300000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.51302700000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51066500000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.51689399999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.512602</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.52578800000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.52242200000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50517100000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.51497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.50855799999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.50425600000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.51480599999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.51140799999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.51183000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.52737500000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.50755899999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.50777499999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.51128600000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.50582899999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51581699999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52510500000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.51133600000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.50464500000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.51824899999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.53012899999999996</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.52976900000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.51504700000000003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.50358099999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.51205199999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.50749100000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.52382200000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.50440099999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.50313600000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.52947299999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.59930099999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.53790199999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.51586100000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.51555200000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.51178000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.52887399999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.50783</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.51462699999999995</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.53360600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.51756400000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.51314800000000005</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.53043099999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.50884099999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.51168400000000003</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.5393</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.51167899999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.51231599999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.51202899999999996</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.50481500000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.51469500000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.52185000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.50470499999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.50462499999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.51926300000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.51368100000000005</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.51632400000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.504189</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.53487499999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.521706</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.52721899999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.51793699999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.51694099999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.51431800000000005</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.51081200000000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.52659</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.50416799999999995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.51487000000000005</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.51484700000000005</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.52203500000000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.51975899999999997</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.53533299999999995</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.52552699999999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.54065399999999997</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.51806600000000003</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.51424999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.51052900000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.50995400000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.523447</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.52116499999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.51432599999999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.51757399999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.51650200000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.51558999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.50354600000000005</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.53194300000000005</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.51482000000000006</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.51427100000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.50381799999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.50833099999999998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.52729400000000004</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.50995400000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.50892999999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.514845</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.52436300000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.51271999999999995</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.53217300000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.52815100000000004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.512741</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.51279300000000005</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.51737</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.50745099999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.51100900000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.52074200000000004</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.51795800000000003</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.50834599999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.52021499999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.50881500000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.52089799999999997</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.51522900000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.50705699999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.51366699999999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.51441099999999995</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.513764</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.51900800000000002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.51734899999999995</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.53157799999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.52637800000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.51588999999999996</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.51074699999999995</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.51671599999999995</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.51097400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31BB-CC4C-AD59-3E34A21F3B45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="158765744"/>
+        <c:axId val="192939856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158765744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192939856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192939856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158765744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2653,6 +4214,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2674,6 +4751,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419061FF-8F76-5542-B19E-AFE1595DE10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A005ADC2-1114-3C4B-AEEE-1BCDE856FC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,10 +5113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3133,7 +5253,7 @@
         <v>0.25860300000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3141,7 +5261,7 @@
         <v>0.26885999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3149,7 +5269,7 @@
         <v>0.25497599999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3157,7 +5277,7 @@
         <v>0.25011</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3165,7 +5285,7 @@
         <v>0.22712599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3173,7 +5293,7 @@
         <v>0.233709</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3181,7 +5301,7 @@
         <v>0.226991</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3189,7 +5309,7 @@
         <v>0.23341999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3197,7 +5317,7 @@
         <v>0.228655</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3205,7 +5325,7 @@
         <v>0.25494299999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3213,7 +5333,7 @@
         <v>0.24848000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3221,7 +5341,7 @@
         <v>0.25130400000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3229,23 +5349,36 @@
         <v>0.24318799999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>0.243948</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>0.24112600000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f>MIN(B:B)</f>
+        <v>0.111918</v>
+      </c>
+      <c r="F30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3253,7 +5386,7 @@
         <v>0.238123</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4617,4 +6750,1641 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A36B3-0521-C84F-8128-95F074AA471B}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.98849200000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.50729999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.54300800000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.55087699999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.56572299999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.56638200000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.56388199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.56061700000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.54466700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.55940500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.53414799999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.53422199999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.52856999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.539636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.55957699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.539906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.53716200000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.52749100000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.54027000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.536053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.54015899999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.546709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.54202799999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.52898500000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.53568499999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.53974599999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.53459500000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.51191299999999995</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.52388000000000001</v>
+      </c>
+      <c r="D30">
+        <f>MIN(B:B)</f>
+        <v>0.50313600000000003</v>
+      </c>
+      <c r="E30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.52023699999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.52464100000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.52939599999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.51863499999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.52470099999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.52083000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.53270799999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.52006799999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.52596200000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.51974900000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.521698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.514316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.52535900000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.50890299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.52119400000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.51596600000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.51264399999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.51466199999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.51815800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.523397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.52242100000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.51453000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.50949500000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.52464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.51969200000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.52275499999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.50810100000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.52540399999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.51878100000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.530914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.51920500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.50869299999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.509382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.53553700000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.52158400000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.52366599999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.51561699999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.50636000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.51558800000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.54381299999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.50875499999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.51290400000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.51843600000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.51561100000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.50517100000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.51247399999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.51592300000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.51302700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.51066500000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.51689399999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.512602</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.52578800000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.52242200000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.50517100000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.51497199999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.50855799999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.50425600000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.51480599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.51140799999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.51183000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.52737500000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.50755899999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.50777499999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.51128600000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.50582899999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.51581699999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.52510500000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.51133600000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.50464500000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.51824899999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.53012899999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.52976900000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.51504700000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.50358099999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.51205199999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.50749100000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.52382200000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.50440099999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.50313600000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.52947299999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.59930099999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.53790199999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.51586100000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.51555200000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.51178000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.52887399999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.50783</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.51462699999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.53360600000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.51756400000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.51314800000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.53043099999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.50884099999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.51168400000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.5393</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.51167899999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.51231599999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.51202899999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0.50481500000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.51469500000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.52185000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.50470499999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.50462499999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.51926300000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.51368100000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.51632400000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.504189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.53487499999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0.521706</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.52721899999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.51793699999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.51694099999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.51431800000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.51081200000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.52659</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0.50416799999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0.51487000000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0.51484700000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0.52203500000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0.51975899999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0.53533299999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0.52552699999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0.54065399999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0.51806600000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0.51424999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0.51052900000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0.50995400000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0.523447</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0.52116499999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0.51432599999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.51757399999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0.51650200000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.51558999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.50354600000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.53194300000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0.51482000000000006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0.51427100000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0.50381799999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0.50833099999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0.52729400000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0.50995400000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0.50892999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0.514845</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.52436300000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0.51271999999999995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0.53217300000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0.52815100000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0.512741</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0.51279300000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0.51737</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0.50745099999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.51100900000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0.52074200000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0.51795800000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0.50834599999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0.52021499999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0.50881500000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0.52089799999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0.51522900000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0.50705699999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0.51366699999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0.51441099999999995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0.513764</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0.51900800000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0.51734899999999995</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0.53157799999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0.52637800000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0.51588999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0.51074699999999995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0.51671599999999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.51097400000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>